--- a/sampledata/fluoro_add/(+)DIP-chloride_sample.xlsx
+++ b/sampledata/fluoro_add/(+)DIP-chloride_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="235">
   <si>
     <t xml:space="preserve">smiles</t>
   </si>
@@ -153,12 +153,15 @@
     <t xml:space="preserve">CCCCCCC(=O)C</t>
   </si>
   <si>
+    <t xml:space="preserve">c1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table IV</t>
+  </si>
+  <si>
     <t xml:space="preserve">c1ccccc1C(=O)CC</t>
   </si>
   <si>
-    <t xml:space="preserve">Table IV</t>
-  </si>
-  <si>
     <t xml:space="preserve">c1ccccc1C(=O)CCC</t>
   </si>
   <si>
@@ -710,10 +713,10 @@
     <t xml:space="preserve">7a</t>
   </si>
   <si>
+    <t xml:space="preserve">COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
     <t xml:space="preserve">2b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1cccc(OC)c1C(=O)C</t>
   </si>
   <si>
     <t xml:space="preserve">COc1ccc(OC)cc1C(=O)C</t>
@@ -1202,9 +1205,6 @@
   </si>
   <si>
     <t xml:space="preserve">Figure 18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)C</t>
   </si>
   <si>
     <t xml:space="preserve">ClCC(=O)c1ccccc1</t>
@@ -1689,7 +1689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1723,13 +1723,6 @@
       <right style="thin"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1798,7 +1791,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1814,19 +1807,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1838,7 +1831,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1864,20 +1857,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="95.4"/>
@@ -1994,7 +1987,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>-97.3</v>
+        <v>-97.4</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>-25</v>
@@ -2005,7 +1998,7 @@
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">50+C4/2</f>
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>11</v>
@@ -2021,13 +2014,13 @@
     </row>
     <row r="5" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>-98.2</v>
+        <v>-97.3</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>-25</v>
@@ -2038,7 +2031,7 @@
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">50+C5/2</f>
-        <v>0.899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>11</v>
@@ -2054,13 +2047,13 @@
     </row>
     <row r="6" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>-95</v>
+        <v>-98.2</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>-25</v>
@@ -2071,7 +2064,7 @@
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">50+C6/2</f>
-        <v>2.5</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>11</v>
@@ -2087,13 +2080,13 @@
     </row>
     <row r="7" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>-90</v>
+        <v>-95</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>-25</v>
@@ -2104,7 +2097,7 @@
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">50+C7/2</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>11</v>
@@ -2120,13 +2113,13 @@
     </row>
     <row r="8" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>79.3</v>
+        <v>-90</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>-25</v>
@@ -2137,7 +2130,7 @@
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">50+C8/2</f>
-        <v>89.65</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>11</v>
@@ -2153,13 +2146,13 @@
     </row>
     <row r="9" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>-97.4</v>
+        <v>79.3</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>-25</v>
@@ -2170,7 +2163,7 @@
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">50+C9/2</f>
-        <v>1.3</v>
+        <v>89.65</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -2186,13 +2179,13 @@
     </row>
     <row r="10" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>-87.4</v>
+        <v>-97.4</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>-25</v>
@@ -2203,7 +2196,7 @@
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">50+C10/2</f>
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
@@ -2219,13 +2212,13 @@
     </row>
     <row r="11" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>-98.1</v>
+        <v>-87.4</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>-25</v>
@@ -2236,7 +2229,7 @@
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">50+C11/2</f>
-        <v>0.950000000000003</v>
+        <v>6.3</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>11</v>
@@ -2252,13 +2245,13 @@
     </row>
     <row r="12" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>-92.4</v>
+        <v>-98.1</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>-25</v>
@@ -2269,7 +2262,7 @@
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">50+C12/2</f>
-        <v>3.8</v>
+        <v>0.950000000000003</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>11</v>
@@ -2285,13 +2278,13 @@
     </row>
     <row r="13" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>-91.3</v>
+        <v>-92.4</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>-25</v>
@@ -2302,7 +2295,7 @@
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">50+C13/2</f>
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>11</v>
@@ -2318,30 +2311,30 @@
     </row>
     <row r="14" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>-84</v>
+        <v>-91.3</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">273+D14</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">50+C14/2</f>
-        <v>8</v>
+        <v>4.35</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>13</v>
@@ -2351,48 +2344,46 @@
     </row>
     <row r="15" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>86</v>
+        <v>-84</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">273+D15</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">50+C15/2</f>
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>-25</v>
@@ -2403,29 +2394,31 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">50+C16/2</f>
-        <v>83.5</v>
+        <v>93</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>-97</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>-25</v>
@@ -2436,23 +2429,23 @@
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">50+C17/2</f>
-        <v>1.5</v>
+        <v>83.5</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>36</v>
@@ -2475,23 +2468,23 @@
         <v>11</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="8" t="n">
-        <v>-98</v>
+        <v>-97</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>-25</v>
@@ -2502,29 +2495,29 @@
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">50+C19/2</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="8" t="n">
-        <v>93</v>
+        <v>-98</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>-25</v>
@@ -2535,29 +2528,29 @@
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">50+C20/2</f>
-        <v>96.5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>-98</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>-25</v>
@@ -2568,29 +2561,29 @@
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">50+C21/2</f>
-        <v>1</v>
+        <v>96.5</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="8" t="n">
-        <v>-26</v>
+        <v>-98</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>-25</v>
@@ -2601,31 +2594,29 @@
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">50+C22/2</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>-25</v>
@@ -2636,29 +2627,31 @@
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">50+C23/2</f>
-        <v>38.5</v>
+        <v>37</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="8" t="n">
-        <v>-38</v>
+        <v>-23</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>-25</v>
@@ -2669,29 +2662,29 @@
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">50+C24/2</f>
-        <v>31</v>
+        <v>38.5</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="8" t="n">
-        <v>-45</v>
+        <v>-38</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>-25</v>
@@ -2702,64 +2695,62 @@
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">50+C25/2</f>
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="8" t="n">
-        <v>92</v>
+        <v>-45</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>-78</v>
+        <v>-25</v>
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">273+D26</f>
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">50+C26/2</f>
-        <v>96</v>
+        <v>27.5</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>-78</v>
@@ -2770,29 +2761,31 @@
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">50+C27/2</f>
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="K27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="8" t="n">
-        <v>-82</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>-78</v>
@@ -2803,64 +2796,62 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">50+C28/2</f>
-        <v>9</v>
+        <v>94.5</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="8" t="n">
-        <v>-99</v>
+        <v>-82</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>-25</v>
+        <v>-78</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">273+D29</f>
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">50+C29/2</f>
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8" t="n">
-        <v>27</v>
+        <v>-99</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>-25</v>
@@ -2871,29 +2862,31 @@
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">50+C30/2</f>
-        <v>63.5</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="8" t="n">
-        <v>-98</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>-25</v>
@@ -2904,29 +2897,29 @@
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">50+C31/2</f>
-        <v>1</v>
+        <v>63.5</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="8" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>-25</v>
@@ -2937,31 +2930,29 @@
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">50+C32/2</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="8" t="n">
-        <v>-95</v>
+        <v>-97</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>-25</v>
@@ -2972,29 +2963,31 @@
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">50+C33/2</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="8" t="n">
-        <v>-87</v>
+        <v>-95</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>-25</v>
@@ -3005,29 +2998,29 @@
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">50+C34/2</f>
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="8" t="n">
-        <v>-94</v>
+        <v>-87</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>-25</v>
@@ -3038,66 +3031,62 @@
       </c>
       <c r="F35" s="4" t="n">
         <f aca="false">50+C35/2</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="8" t="n">
-        <v>90</v>
+        <v>-94</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E36" s="4" t="n">
         <f aca="false">273+D36</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">50+C36/2</f>
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>20</v>
@@ -3108,31 +3097,33 @@
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">50+C37/2</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>20</v>
@@ -3143,28 +3134,28 @@
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">50+C38/2</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8" t="n">
         <v>82</v>
@@ -3184,25 +3175,25 @@
         <v>11</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>20</v>
@@ -3213,110 +3204,112 @@
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">50+C40/2</f>
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">273+D41</f>
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">50+C41/2</f>
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4" t="n">
         <f aca="false">273+D42</f>
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">50+C42/2</f>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C43" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="D43" s="4" t="n">
         <v>20</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>-25</v>
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">273+D43</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">50+C43/2</f>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>11</v>
@@ -3325,88 +3318,88 @@
         <v>87</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>89</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C44" s="8" t="n">
-        <v>-93</v>
+        <v>20</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">273+D44</f>
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">50+C44/2</f>
-        <v>3.5</v>
+        <v>60</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="8" t="n">
-        <v>-95</v>
+        <v>-93</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4" t="n">
         <f aca="false">273+D45</f>
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">50+C45/2</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="8" t="n">
-        <v>-94</v>
+        <v>-95</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>-25</v>
@@ -3417,26 +3410,26 @@
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">50+C46/2</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="8" t="n">
         <v>-94</v>
@@ -3456,23 +3449,23 @@
         <v>11</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="8" t="n">
-        <v>-20</v>
+        <v>-94</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>-25</v>
@@ -3483,99 +3476,99 @@
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">50+C48/2</f>
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="8" t="n">
-        <v>-96</v>
+        <v>-20</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">273+D49</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">50+C49/2</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>12</v>
+      <c r="H49" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>102</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="8" t="n">
-        <v>-98</v>
+        <v>-96</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E50" s="4" t="n">
         <f aca="false">273+D50</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">50+C50/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>12</v>
+      </c>
       <c r="I50" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K50" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C51" s="8" t="n">
-        <v>82</v>
+        <v>-98</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>-25</v>
@@ -3586,29 +3579,29 @@
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">50+C51/2</f>
-        <v>91</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="8" t="n">
-        <v>-91</v>
+        <v>82</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>-25</v>
@@ -3619,29 +3612,29 @@
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">50+C52/2</f>
-        <v>4.5</v>
+        <v>91</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="8" t="n">
-        <v>18</v>
+        <v>-91</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>-25</v>
@@ -3652,27 +3645,29 @@
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">50+C53/2</f>
-        <v>59</v>
+        <v>4.5</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>-25</v>
@@ -3683,91 +3678,91 @@
       </c>
       <c r="F54" s="4" t="n">
         <f aca="false">50+C54/2</f>
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="8" t="n">
-        <v>-91</v>
+        <v>15</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E55" s="4" t="n">
         <f aca="false">273+D55</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F55" s="4" t="n">
         <f aca="false">50+C55/2</f>
-        <v>4.5</v>
+        <v>57.5</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="8" t="n">
-        <v>95</v>
+        <v>-91</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">273+D56</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">50+C56/2</f>
-        <v>97.5</v>
+        <v>4.5</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="8" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>-25</v>
@@ -3778,91 +3773,91 @@
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">50+C57/2</f>
-        <v>92.5</v>
+        <v>97.5</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C58" s="8" t="n">
-        <v>-90</v>
+        <v>85</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">273+D58</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F58" s="4" t="n">
         <f aca="false">50+C58/2</f>
-        <v>5</v>
+        <v>92.5</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="8" t="n">
-        <v>-61</v>
+        <v>-90</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">273+D59</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">50+C59/2</f>
-        <v>19.5</v>
+        <v>5</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="8" t="n">
-        <v>5</v>
+        <v>-61</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>-25</v>
@@ -3873,93 +3868,89 @@
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">50+C60/2</f>
-        <v>52.5</v>
+        <v>19.5</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="8" t="n">
-        <v>-96</v>
+        <v>5</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E61" s="4" t="n">
         <f aca="false">273+D61</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">50+C61/2</f>
-        <v>2</v>
+        <v>52.5</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="8" t="n">
-        <v>-85</v>
+        <v>-96</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E62" s="4" t="n">
         <f aca="false">273+D62</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F62" s="4" t="n">
         <f aca="false">50+C62/2</f>
-        <v>7.5</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>130</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C63" s="8" t="n">
-        <v>-76</v>
+        <v>-85</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>-25</v>
@@ -3970,29 +3961,31 @@
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">50+C63/2</f>
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J63" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="K63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="8" t="n">
-        <v>95</v>
+        <v>-76</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>-25</v>
@@ -4003,27 +3996,29 @@
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">50+C64/2</f>
-        <v>97.5</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H64" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="8" t="n">
-        <v>-97</v>
+        <v>95</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>-25</v>
@@ -4034,25 +4029,27 @@
       </c>
       <c r="F65" s="4" t="n">
         <f aca="false">50+C65/2</f>
-        <v>1.5</v>
+        <v>97.5</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="I65" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J65" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="J65" s="5"/>
       <c r="K65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="8" t="n">
-        <v>-99</v>
+        <v>-97</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>-25</v>
@@ -4063,25 +4060,25 @@
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">50+C66/2</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="8" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>-25</v>
@@ -4092,25 +4089,25 @@
       </c>
       <c r="F67" s="4" t="n">
         <f aca="false">50+C67/2</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C68" s="8" t="n">
-        <v>-96</v>
+        <v>-98</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>-25</v>
@@ -4121,25 +4118,25 @@
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">50+C68/2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C69" s="8" t="n">
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>-25</v>
@@ -4150,29 +4147,25 @@
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">50+C69/2</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="H69" s="4"/>
       <c r="I69" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J69" s="4"/>
-      <c r="K69" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="8" t="n">
-        <v>-82</v>
+        <v>-95</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>-25</v>
@@ -4183,25 +4176,29 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">50+C70/2</f>
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="I70" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="8" t="n">
-        <v>-98</v>
+        <v>-82</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>-25</v>
@@ -4212,25 +4209,25 @@
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">50+C71/2</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C72" s="8" t="n">
-        <v>-93</v>
+        <v>-98</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>-25</v>
@@ -4241,27 +4238,25 @@
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">50+C72/2</f>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J72" s="4"/>
-      <c r="K72" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="8" t="n">
-        <v>-91</v>
+        <v>-93</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>-25</v>
@@ -4272,25 +4267,27 @@
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">50+C73/2</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="K73" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C74" s="8" t="n">
-        <v>-95</v>
+        <v>-91</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>-25</v>
@@ -4301,25 +4298,25 @@
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">50+C74/2</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C75" s="8" t="n">
-        <v>98</v>
+        <v>-95</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>-25</v>
@@ -4330,25 +4327,25 @@
       </c>
       <c r="F75" s="4" t="n">
         <f aca="false">50+C75/2</f>
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="8" t="n">
-        <v>-97</v>
+        <v>98</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>-25</v>
@@ -4359,25 +4356,25 @@
       </c>
       <c r="F76" s="4" t="n">
         <f aca="false">50+C76/2</f>
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C77" s="8" t="n">
-        <v>96</v>
+        <v>-97</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>-25</v>
@@ -4388,25 +4385,25 @@
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">50+C77/2</f>
-        <v>98</v>
+        <v>1.5</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C78" s="8" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>-25</v>
@@ -4417,21 +4414,19 @@
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">50+C78/2</f>
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J78" s="4"/>
-      <c r="K78" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>152</v>
@@ -4453,16 +4448,16 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>153</v>
@@ -4484,22 +4479,22 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C81" s="8" t="n">
-        <v>-32</v>
+        <v>99</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>-25</v>
@@ -4510,27 +4505,27 @@
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">50+C81/2</f>
-        <v>34</v>
+        <v>99.5</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="H81" s="4"/>
       <c r="I81" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="K81" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="8" t="n">
-        <v>-98</v>
+        <v>-32</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>-25</v>
@@ -4541,25 +4536,27 @@
       </c>
       <c r="F82" s="4" t="n">
         <f aca="false">50+C82/2</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="I82" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C83" s="8" t="n">
-        <v>95</v>
+        <v>-98</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>-25</v>
@@ -4570,25 +4567,25 @@
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">50+C83/2</f>
-        <v>97.5</v>
+        <v>1</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="8" t="n">
-        <v>-81</v>
+        <v>95</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>-25</v>
@@ -4599,25 +4596,25 @@
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">50+C84/2</f>
-        <v>9.5</v>
+        <v>97.5</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="8" t="n">
-        <v>-36</v>
+        <v>-81</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>-25</v>
@@ -4628,25 +4625,25 @@
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">50+C85/2</f>
-        <v>32</v>
+        <v>9.5</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="11" t="n">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="8" t="n">
+        <v>-36</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>-25</v>
@@ -4657,25 +4654,25 @@
       </c>
       <c r="F86" s="4" t="n">
         <f aca="false">50+C86/2</f>
-        <v>60.5</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-    </row>
-    <row r="87" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
-        <v>87</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="9" t="n">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="11" t="n">
+        <v>21</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>-25</v>
@@ -4686,29 +4683,25 @@
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">50+C87/2</f>
-        <v>58.5</v>
-      </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K87" s="13"/>
+        <v>60.5</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="9" t="n">
-        <v>28</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="13" t="n">
+        <v>17</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>-25</v>
@@ -4719,25 +4712,29 @@
       </c>
       <c r="F88" s="4" t="n">
         <f aca="false">50+C88/2</f>
-        <v>64</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+        <v>58.5</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="I88" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
+      <c r="J88" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="9" t="n">
-        <v>53</v>
+        <v>165</v>
+      </c>
+      <c r="C89" s="13" t="n">
+        <v>28</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>-25</v>
@@ -4748,187 +4745,187 @@
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">50+C89/2</f>
-        <v>76.5</v>
-      </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="9" t="n">
-        <v>98</v>
+        <v>166</v>
+      </c>
+      <c r="C90" s="13" t="n">
+        <v>53</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">273+D90</f>
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">50+C90/2</f>
-        <v>99</v>
-      </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+        <v>76.5</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="9" t="n">
-        <v>39</v>
+        <v>167</v>
+      </c>
+      <c r="C91" s="13" t="n">
+        <v>98</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="E91" s="4" t="n">
         <f aca="false">273+D91</f>
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="F91" s="4" t="n">
         <f aca="false">50+C91/2</f>
-        <v>69.5</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="9" t="n">
-        <v>97</v>
+        <v>168</v>
+      </c>
+      <c r="C92" s="13" t="n">
+        <v>39</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>23</v>
+        <v>-25</v>
       </c>
       <c r="E92" s="4" t="n">
         <f aca="false">273+D92</f>
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="F92" s="4" t="n">
         <f aca="false">50+C92/2</f>
-        <v>98.5</v>
-      </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+        <v>69.5</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
-        <v>93</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>170</v>
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="C93" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="D93" s="13" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E93" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E93" s="4" t="n">
         <f aca="false">273+D93</f>
-        <v>248</v>
-      </c>
-      <c r="F93" s="16" t="n">
+        <v>296</v>
+      </c>
+      <c r="F93" s="4" t="n">
         <f aca="false">50+C93/2</f>
-        <v>92</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J93" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>173</v>
-      </c>
+        <v>98.5</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="D94" s="13" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E94" s="13" t="n">
+        <v>170</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E94" s="4" t="n">
         <f aca="false">273+D94</f>
         <v>248</v>
       </c>
       <c r="F94" s="16" t="n">
         <f aca="false">50+C94/2</f>
-        <v>97</v>
-      </c>
-      <c r="G94" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
+      <c r="I94" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C95" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="D95" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="13" t="n">
+        <v>174</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E95" s="4" t="n">
         <f aca="false">273+D95</f>
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F95" s="16" t="n">
         <f aca="false">50+C95/2</f>
-        <v>92.5</v>
+        <v>97</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
@@ -4940,24 +4937,24 @@
     </row>
     <row r="96" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="D96" s="13" t="n">
+        <v>175</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D96" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E96" s="13" t="n">
+      <c r="E96" s="4" t="n">
         <f aca="false">273+D96</f>
         <v>273</v>
       </c>
       <c r="F96" s="16" t="n">
         <f aca="false">50+C96/2</f>
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
@@ -4969,24 +4966,24 @@
     </row>
     <row r="97" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="13" t="n">
-        <v>-94</v>
-      </c>
-      <c r="D97" s="13" t="n">
+        <v>176</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E97" s="13" t="n">
+      <c r="E97" s="4" t="n">
         <f aca="false">273+D97</f>
         <v>273</v>
       </c>
       <c r="F97" s="16" t="n">
         <f aca="false">50+C97/2</f>
-        <v>3</v>
+        <v>97.5</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
@@ -4998,24 +4995,24 @@
     </row>
     <row r="98" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="D98" s="13" t="n">
+        <v>177</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>-94</v>
+      </c>
+      <c r="D98" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E98" s="13" t="n">
+      <c r="E98" s="4" t="n">
         <f aca="false">273+D98</f>
         <v>273</v>
       </c>
       <c r="F98" s="16" t="n">
         <f aca="false">50+C98/2</f>
-        <v>95.5</v>
+        <v>3</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
@@ -5027,24 +5024,24 @@
     </row>
     <row r="99" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="13" t="n">
-        <v>93</v>
-      </c>
-      <c r="D99" s="13" t="n">
+        <v>178</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D99" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E99" s="13" t="n">
+      <c r="E99" s="4" t="n">
         <f aca="false">273+D99</f>
         <v>273</v>
       </c>
       <c r="F99" s="16" t="n">
         <f aca="false">50+C99/2</f>
-        <v>96.5</v>
+        <v>95.5</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -5056,24 +5053,24 @@
     </row>
     <row r="100" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C100" s="13" t="n">
-        <v>-99</v>
-      </c>
-      <c r="D100" s="13" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D100" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E100" s="13" t="n">
+      <c r="E100" s="4" t="n">
         <f aca="false">273+D100</f>
         <v>273</v>
       </c>
       <c r="F100" s="16" t="n">
         <f aca="false">50+C100/2</f>
-        <v>0.5</v>
+        <v>96.5</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -5085,32 +5082,28 @@
     </row>
     <row r="101" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
-        <v>101</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="13" t="n">
-        <v>96.4</v>
-      </c>
-      <c r="D101" s="13" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E101" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>-99</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4" t="n">
         <f aca="false">273+D101</f>
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F101" s="16" t="n">
         <f aca="false">50+C101/2</f>
-        <v>98.2</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G101" s="16"/>
       <c r="H101" s="16"/>
-      <c r="I101" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="I101" s="16"/>
       <c r="J101" s="16"/>
       <c r="K101" s="5" t="s">
         <v>173</v>
@@ -5118,51 +5111,57 @@
     </row>
     <row r="102" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" s="13" t="n">
-        <v>88</v>
-      </c>
-      <c r="D102" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="E102" s="13" t="n">
+        <v>181</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E102" s="4" t="n">
         <f aca="false">273+D102</f>
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F102" s="16" t="n">
         <f aca="false">50+C102/2</f>
-        <v>94</v>
-      </c>
-      <c r="G102" s="16"/>
+        <v>98.2</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="I102" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
+      <c r="K102" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" s="13" t="n">
-        <v>96.9</v>
-      </c>
-      <c r="D103" s="13" t="n">
+        <v>183</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D103" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="E103" s="13" t="n">
+      <c r="E103" s="4" t="n">
         <f aca="false">273+D103</f>
         <v>298</v>
       </c>
       <c r="F103" s="16" t="n">
         <f aca="false">50+C103/2</f>
-        <v>98.45</v>
+        <v>94</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
@@ -5172,24 +5171,24 @@
     </row>
     <row r="104" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" s="13" t="n">
+        <v>184</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="D104" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="E104" s="16" t="n">
+      <c r="E104" s="4" t="n">
         <f aca="false">273+D104</f>
         <v>298</v>
       </c>
       <c r="F104" s="16" t="n">
         <f aca="false">50+C104/2</f>
-        <v>50</v>
+        <v>98.45</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
@@ -5199,15 +5198,15 @@
     </row>
     <row r="105" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="D105" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4" t="n">
         <v>25</v>
       </c>
       <c r="E105" s="16" t="n">
@@ -5216,7 +5215,7 @@
       </c>
       <c r="F105" s="16" t="n">
         <f aca="false">50+C105/2</f>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
@@ -5226,15 +5225,15 @@
     </row>
     <row r="106" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="D106" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="D106" s="4" t="n">
         <v>25</v>
       </c>
       <c r="E106" s="16" t="n">
@@ -5243,7 +5242,7 @@
       </c>
       <c r="F106" s="16" t="n">
         <f aca="false">50+C106/2</f>
-        <v>57.5</v>
+        <v>64</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
@@ -5253,15 +5252,15 @@
     </row>
     <row r="107" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D107" s="4" t="n">
         <v>25</v>
       </c>
       <c r="E107" s="16" t="n">
@@ -5270,7 +5269,7 @@
       </c>
       <c r="F107" s="16" t="n">
         <f aca="false">50+C107/2</f>
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
@@ -5280,13 +5279,13 @@
     </row>
     <row r="108" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" s="16" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D108" s="16" t="n">
         <v>25</v>
@@ -5297,29 +5296,23 @@
       </c>
       <c r="F108" s="16" t="n">
         <f aca="false">50+C108/2</f>
-        <v>98.5</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G108" s="16"/>
       <c r="H108" s="16"/>
-      <c r="I108" s="16" t="s">
-        <v>190</v>
-      </c>
+      <c r="I108" s="16"/>
       <c r="J108" s="16"/>
-      <c r="K108" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="K108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C109" s="16" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D109" s="16" t="n">
         <v>25</v>
@@ -5330,11 +5323,15 @@
       </c>
       <c r="F109" s="16" t="n">
         <f aca="false">50+C109/2</f>
-        <v>84.5</v>
-      </c>
-      <c r="G109" s="16"/>
+        <v>98.5</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
+      <c r="I109" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="J109" s="16"/>
       <c r="K109" s="15" t="s">
         <v>191</v>
@@ -5342,13 +5339,13 @@
     </row>
     <row r="110" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C110" s="16" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D110" s="16" t="n">
         <v>25</v>
@@ -5359,7 +5356,7 @@
       </c>
       <c r="F110" s="16" t="n">
         <f aca="false">50+C110/2</f>
-        <v>82</v>
+        <v>84.5</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
@@ -5371,13 +5368,13 @@
     </row>
     <row r="111" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C111" s="16" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D111" s="16" t="n">
         <v>25</v>
@@ -5388,25 +5385,25 @@
       </c>
       <c r="F111" s="16" t="n">
         <f aca="false">50+C111/2</f>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
       <c r="K111" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="16" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D112" s="16" t="n">
         <v>25</v>
@@ -5417,114 +5414,116 @@
       </c>
       <c r="F112" s="16" t="n">
         <f aca="false">50+C112/2</f>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
       <c r="K112" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C113" s="16" t="n">
-        <v>-97</v>
+        <v>66</v>
       </c>
       <c r="D113" s="16" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E113" s="16" t="n">
         <f aca="false">273+D113</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F113" s="16" t="n">
         <f aca="false">50+C113/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>198</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
       <c r="J113" s="16"/>
-      <c r="K113" s="15"/>
+      <c r="K113" s="15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C114" s="16" t="n">
-        <v>80</v>
+        <v>-97</v>
       </c>
       <c r="D114" s="16" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E114" s="16" t="n">
         <f aca="false">273+D114</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F114" s="16" t="n">
         <f aca="false">50+C114/2</f>
-        <v>90</v>
-      </c>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>198</v>
+      </c>
       <c r="J114" s="16"/>
-      <c r="K114" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="K114" s="15"/>
     </row>
     <row r="115" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C115" s="16" t="n">
-        <v>-98</v>
+        <v>80</v>
       </c>
       <c r="D115" s="16" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E115" s="16" t="n">
         <f aca="false">273+D115</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F115" s="16" t="n">
         <f aca="false">50+C115/2</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
-      <c r="K115" s="15"/>
+      <c r="K115" s="15" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116" s="16" t="n">
-        <v>-99</v>
+        <v>-98</v>
       </c>
       <c r="D116" s="16" t="n">
         <v>-25</v>
@@ -5535,7 +5534,7 @@
       </c>
       <c r="F116" s="16" t="n">
         <f aca="false">50+C116/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
@@ -5545,42 +5544,40 @@
     </row>
     <row r="117" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C117" s="16" t="n">
-        <v>30</v>
+        <v>-99</v>
       </c>
       <c r="D117" s="16" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E117" s="16" t="n">
         <f aca="false">273+D117</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F117" s="16" t="n">
         <f aca="false">50+C117/2</f>
-        <v>65</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
       <c r="K117" s="15"/>
     </row>
     <row r="118" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="18" t="n">
-        <v>118</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>204</v>
+      <c r="A118" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="C118" s="16" t="n">
-        <v>-90</v>
+        <v>30</v>
       </c>
       <c r="D118" s="16" t="n">
         <v>25</v>
@@ -5591,31 +5588,25 @@
       </c>
       <c r="F118" s="16" t="n">
         <f aca="false">50+C118/2</f>
-        <v>5</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I118" s="16" t="s">
-        <v>206</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
       <c r="J118" s="16"/>
-      <c r="K118" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="K118" s="15"/>
     </row>
     <row r="119" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="18" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C119" s="16" t="n">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="D119" s="16" t="n">
         <v>25</v>
@@ -5626,23 +5617,31 @@
       </c>
       <c r="F119" s="16" t="n">
         <f aca="false">50+C119/2</f>
-        <v>11</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="J119" s="16"/>
-      <c r="K119" s="15"/>
+      <c r="K119" s="15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="18" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C120" s="16" t="n">
-        <v>-91</v>
+        <v>-78</v>
       </c>
       <c r="D120" s="16" t="n">
         <v>25</v>
@@ -5653,7 +5652,7 @@
       </c>
       <c r="F120" s="16" t="n">
         <f aca="false">50+C120/2</f>
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
@@ -5663,13 +5662,13 @@
     </row>
     <row r="121" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="18" t="n">
-        <v>121</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>209</v>
+        <v>120</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="C121" s="16" t="n">
-        <v>-82</v>
+        <v>-91</v>
       </c>
       <c r="D121" s="16" t="n">
         <v>25</v>
@@ -5680,7 +5679,7 @@
       </c>
       <c r="F121" s="16" t="n">
         <f aca="false">50+C121/2</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
@@ -5690,13 +5689,13 @@
     </row>
     <row r="122" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="n">
-        <v>122</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>210</v>
+        <v>121</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="C122" s="16" t="n">
-        <v>-92</v>
+        <v>-82</v>
       </c>
       <c r="D122" s="16" t="n">
         <v>25</v>
@@ -5707,7 +5706,7 @@
       </c>
       <c r="F122" s="16" t="n">
         <f aca="false">50+C122/2</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
@@ -5717,13 +5716,13 @@
     </row>
     <row r="123" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="18" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C123" s="16" t="n">
-        <v>-87</v>
+        <v>-92</v>
       </c>
       <c r="D123" s="16" t="n">
         <v>25</v>
@@ -5734,7 +5733,7 @@
       </c>
       <c r="F123" s="16" t="n">
         <f aca="false">50+C123/2</f>
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
@@ -5744,13 +5743,13 @@
     </row>
     <row r="124" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="18" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C124" s="16" t="n">
-        <v>-89</v>
+        <v>-87</v>
       </c>
       <c r="D124" s="16" t="n">
         <v>25</v>
@@ -5761,7 +5760,7 @@
       </c>
       <c r="F124" s="16" t="n">
         <f aca="false">50+C124/2</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
@@ -5771,13 +5770,13 @@
     </row>
     <row r="125" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="18" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C125" s="16" t="n">
-        <v>-92</v>
+        <v>-89</v>
       </c>
       <c r="D125" s="16" t="n">
         <v>25</v>
@@ -5788,7 +5787,7 @@
       </c>
       <c r="F125" s="16" t="n">
         <f aca="false">50+C125/2</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="G125" s="16"/>
       <c r="H125" s="16"/>
@@ -5798,13 +5797,13 @@
     </row>
     <row r="126" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C126" s="16" t="n">
-        <v>-91</v>
+        <v>-92</v>
       </c>
       <c r="D126" s="16" t="n">
         <v>25</v>
@@ -5815,7 +5814,7 @@
       </c>
       <c r="F126" s="16" t="n">
         <f aca="false">50+C126/2</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G126" s="16"/>
       <c r="H126" s="16"/>
@@ -5825,13 +5824,13 @@
     </row>
     <row r="127" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="18" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C127" s="16" t="n">
-        <v>-87</v>
+        <v>-91</v>
       </c>
       <c r="D127" s="16" t="n">
         <v>25</v>
@@ -5842,7 +5841,7 @@
       </c>
       <c r="F127" s="16" t="n">
         <f aca="false">50+C127/2</f>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G127" s="16"/>
       <c r="H127" s="16"/>
@@ -5852,13 +5851,13 @@
     </row>
     <row r="128" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="18" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C128" s="16" t="n">
-        <v>79</v>
+        <v>-87</v>
       </c>
       <c r="D128" s="16" t="n">
         <v>25</v>
@@ -5869,58 +5868,56 @@
       </c>
       <c r="F128" s="16" t="n">
         <f aca="false">50+C128/2</f>
-        <v>89.5</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="H128" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="I128" s="16" t="s">
-        <v>219</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
       <c r="J128" s="16"/>
       <c r="K128" s="15"/>
     </row>
     <row r="129" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C129" s="16" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D129" s="16" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E129" s="16" t="n">
         <f aca="false">273+D129</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F129" s="16" t="n">
         <f aca="false">50+C129/2</f>
-        <v>99.5</v>
+        <v>89.5</v>
       </c>
       <c r="G129" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
+      <c r="H129" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="J129" s="16"/>
       <c r="K129" s="15"/>
     </row>
     <row r="130" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="18" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C130" s="16" t="n">
-        <v>-98</v>
+        <v>99</v>
       </c>
       <c r="D130" s="16" t="n">
         <v>-25</v>
@@ -5931,7 +5928,7 @@
       </c>
       <c r="F130" s="16" t="n">
         <f aca="false">50+C130/2</f>
-        <v>1</v>
+        <v>99.5</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>217</v>
@@ -5943,44 +5940,42 @@
     </row>
     <row r="131" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="18" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C131" s="16" t="n">
-        <v>21</v>
+        <v>-98</v>
       </c>
       <c r="D131" s="16" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E131" s="16" t="n">
         <f aca="false">273+D131</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F131" s="16" t="n">
         <f aca="false">50+C131/2</f>
-        <v>60.5</v>
+        <v>1</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H131" s="16" t="s">
-        <v>223</v>
-      </c>
+      <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
       <c r="K131" s="15"/>
     </row>
     <row r="132" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C132" s="16" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D132" s="16" t="n">
         <v>25</v>
@@ -5991,25 +5986,27 @@
       </c>
       <c r="F132" s="16" t="n">
         <f aca="false">50+C132/2</f>
-        <v>64</v>
+        <v>60.5</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H132" s="16"/>
+      <c r="H132" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="I132" s="16"/>
       <c r="J132" s="16"/>
       <c r="K132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="18" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" s="16" t="n">
-        <v>-38</v>
+        <v>28</v>
       </c>
       <c r="D133" s="16" t="n">
         <v>25</v>
@@ -6020,7 +6017,7 @@
       </c>
       <c r="F133" s="16" t="n">
         <f aca="false">50+C133/2</f>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>217</v>
@@ -6032,13 +6029,13 @@
     </row>
     <row r="134" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="18" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C134" s="16" t="n">
-        <v>-98</v>
+        <v>-38</v>
       </c>
       <c r="D134" s="16" t="n">
         <v>25</v>
@@ -6049,7 +6046,7 @@
       </c>
       <c r="F134" s="16" t="n">
         <f aca="false">50+C134/2</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>217</v>
@@ -6061,13 +6058,13 @@
     </row>
     <row r="135" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="18" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C135" s="16" t="n">
-        <v>-96</v>
+        <v>-98</v>
       </c>
       <c r="D135" s="16" t="n">
         <v>25</v>
@@ -6078,7 +6075,7 @@
       </c>
       <c r="F135" s="16" t="n">
         <f aca="false">50+C135/2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135" s="16" t="s">
         <v>217</v>
@@ -6090,13 +6087,13 @@
     </row>
     <row r="136" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="18" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C136" s="16" t="n">
-        <v>-94</v>
+        <v>-96</v>
       </c>
       <c r="D136" s="16" t="n">
         <v>25</v>
@@ -6107,7 +6104,7 @@
       </c>
       <c r="F136" s="16" t="n">
         <f aca="false">50+C136/2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136" s="16" t="s">
         <v>217</v>
@@ -6119,13 +6116,13 @@
     </row>
     <row r="137" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="18" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C137" s="16" t="n">
-        <v>46</v>
+        <v>-94</v>
       </c>
       <c r="D137" s="16" t="n">
         <v>25</v>
@@ -6136,7 +6133,7 @@
       </c>
       <c r="F137" s="16" t="n">
         <f aca="false">50+C137/2</f>
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>217</v>
@@ -6148,13 +6145,13 @@
     </row>
     <row r="138" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="18" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C138" s="16" t="n">
-        <v>-15</v>
+        <v>46</v>
       </c>
       <c r="D138" s="16" t="n">
         <v>25</v>
@@ -6165,7 +6162,7 @@
       </c>
       <c r="F138" s="16" t="n">
         <f aca="false">50+C138/2</f>
-        <v>42.5</v>
+        <v>73</v>
       </c>
       <c r="G138" s="16" t="s">
         <v>217</v>
@@ -6177,13 +6174,13 @@
     </row>
     <row r="139" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="18" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C139" s="16" t="n">
-        <v>-99</v>
+        <v>-15</v>
       </c>
       <c r="D139" s="16" t="n">
         <v>25</v>
@@ -6194,7 +6191,7 @@
       </c>
       <c r="F139" s="16" t="n">
         <f aca="false">50+C139/2</f>
-        <v>0.5</v>
+        <v>42.5</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>217</v>
@@ -6206,13 +6203,13 @@
     </row>
     <row r="140" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="18" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C140" s="16" t="n">
-        <v>-96</v>
+        <v>-99</v>
       </c>
       <c r="D140" s="16" t="n">
         <v>25</v>
@@ -6223,7 +6220,7 @@
       </c>
       <c r="F140" s="16" t="n">
         <f aca="false">50+C140/2</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>217</v>
@@ -6235,13 +6232,13 @@
     </row>
     <row r="141" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="18" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C141" s="16" t="n">
-        <v>-92</v>
+        <v>-96</v>
       </c>
       <c r="D141" s="16" t="n">
         <v>25</v>
@@ -6252,7 +6249,7 @@
       </c>
       <c r="F141" s="16" t="n">
         <f aca="false">50+C141/2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>217</v>
@@ -6264,46 +6261,63 @@
     </row>
     <row r="142" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="18" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C142" s="16" t="n">
-        <v>96</v>
+        <v>-92</v>
       </c>
       <c r="D142" s="16" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E142" s="16" t="n">
         <f aca="false">273+D142</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F142" s="16" t="n">
         <f aca="false">50+C142/2</f>
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H142" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="I142" s="16" t="s">
-        <v>234</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
       <c r="J142" s="16"/>
       <c r="K142" s="15"/>
     </row>
     <row r="143" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="19"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
+      <c r="A143" s="18" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="D143" s="16" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E143" s="16" t="n">
+        <f aca="false">273+D143</f>
+        <v>248</v>
+      </c>
+      <c r="F143" s="16" t="n">
+        <f aca="false">50+C143/2</f>
+        <v>98</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H143" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I143" s="16" t="s">
+        <v>234</v>
+      </c>
       <c r="J143" s="16"/>
       <c r="K143" s="15"/>
     </row>
@@ -6402,6 +6416,18 @@
       <c r="I151" s="16"/>
       <c r="J151" s="16"/>
       <c r="K151" s="15"/>
+    </row>
+    <row r="152" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="19"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6418,28 +6444,28 @@
     <hyperlink ref="I12" r:id="rId11" display="https://pubs.acs.org/doi/10.1021/ja00213a030"/>
     <hyperlink ref="I13" r:id="rId12" display="https://pubs.acs.org/doi/10.1021/ja00213a030"/>
     <hyperlink ref="I14" r:id="rId13" display="https://pubs.acs.org/doi/10.1021/ja00213a030"/>
-    <hyperlink ref="I15" r:id="rId14" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
+    <hyperlink ref="I15" r:id="rId14" display="https://pubs.acs.org/doi/10.1021/ja00213a030"/>
     <hyperlink ref="I16" r:id="rId15" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
     <hyperlink ref="I17" r:id="rId16" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
     <hyperlink ref="I18" r:id="rId17" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
     <hyperlink ref="I19" r:id="rId18" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
     <hyperlink ref="I20" r:id="rId19" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
     <hyperlink ref="I21" r:id="rId20" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
-    <hyperlink ref="I22" r:id="rId21" display="https://pubs.acs.org/doi/10.1021/jo00280a013"/>
+    <hyperlink ref="I22" r:id="rId21" display="https://pubs.acs.org/doi/10.1021/jo00248a005"/>
     <hyperlink ref="I23" r:id="rId22" display="https://pubs.acs.org/doi/10.1021/jo00280a013"/>
     <hyperlink ref="I24" r:id="rId23" display="https://pubs.acs.org/doi/10.1021/jo00280a013"/>
     <hyperlink ref="I25" r:id="rId24" display="https://pubs.acs.org/doi/10.1021/jo00280a013"/>
-    <hyperlink ref="I26" r:id="rId25" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
+    <hyperlink ref="I26" r:id="rId25" display="https://pubs.acs.org/doi/10.1021/jo00280a013"/>
     <hyperlink ref="I27" r:id="rId26" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
     <hyperlink ref="I28" r:id="rId27" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
     <hyperlink ref="I29" r:id="rId28" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
     <hyperlink ref="I30" r:id="rId29" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
     <hyperlink ref="I31" r:id="rId30" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
-    <hyperlink ref="I32" r:id="rId31" display="https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub"/>
+    <hyperlink ref="I32" r:id="rId31" display="https://pubs.acs.org/doi/full/10.1021/jo025594y"/>
     <hyperlink ref="I33" r:id="rId32" display="https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub"/>
     <hyperlink ref="I34" r:id="rId33" display="https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub"/>
     <hyperlink ref="I35" r:id="rId34" display="https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub"/>
-    <hyperlink ref="I36" r:id="rId35" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
+    <hyperlink ref="I36" r:id="rId35" display="https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub"/>
     <hyperlink ref="I37" r:id="rId36" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
     <hyperlink ref="I38" r:id="rId37" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
     <hyperlink ref="I39" r:id="rId38" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
@@ -6452,9 +6478,9 @@
     <hyperlink ref="I46" r:id="rId45" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
     <hyperlink ref="I47" r:id="rId46" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
     <hyperlink ref="I48" r:id="rId47" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
-    <hyperlink ref="I49" r:id="rId48" display="https://pubs.acs.org/doi/abs/10.1021/ja00165a036"/>
-    <hyperlink ref="I50" r:id="rId49" display="https://www.sciencedirect.com/science/article/pii/S0957416600822089"/>
-    <hyperlink ref="I51" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
+    <hyperlink ref="I49" r:id="rId48" display="https://www.sciencedirect.com/science/article/pii/S0040403900767803"/>
+    <hyperlink ref="I50" r:id="rId49" display="https://pubs.acs.org/doi/abs/10.1021/ja00165a036"/>
+    <hyperlink ref="I51" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S0957416600822089"/>
     <hyperlink ref="I52" r:id="rId51" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
     <hyperlink ref="I53" r:id="rId52" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
     <hyperlink ref="I54" r:id="rId53" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
@@ -6465,7 +6491,7 @@
     <hyperlink ref="I59" r:id="rId58" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
     <hyperlink ref="I60" r:id="rId59" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
     <hyperlink ref="I61" r:id="rId60" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
-    <hyperlink ref="I62" r:id="rId61" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
+    <hyperlink ref="I62" r:id="rId61" display="https://www.sciencedirect.com/science/article/pii/S0022113907001601"/>
     <hyperlink ref="I63" r:id="rId62" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
     <hyperlink ref="I64" r:id="rId63" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
     <hyperlink ref="I65" r:id="rId64" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
@@ -6490,12 +6516,13 @@
     <hyperlink ref="I84" r:id="rId83" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
     <hyperlink ref="I85" r:id="rId84" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
     <hyperlink ref="I86" r:id="rId85" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
-    <hyperlink ref="I87" r:id="rId86" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
+    <hyperlink ref="I87" r:id="rId86" display="https://pubs.acs.org/doi/10.1021/ar00013a003"/>
     <hyperlink ref="I88" r:id="rId87" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I89" r:id="rId88" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I90" r:id="rId89" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I91" r:id="rId90" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I92" r:id="rId91" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
+    <hyperlink ref="I93" r:id="rId92" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
